--- a/docs/Manhours.xlsx
+++ b/docs/Manhours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\maturitest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C8988F3-B3CD-45F1-89AE-86EA334FE562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69461154-702D-49A5-A665-A76703ED7684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{8C67929B-6660-4210-A50F-441485F35E9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C67929B-6660-4210-A50F-441485F35E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ferencei</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>2.týden</t>
+  </si>
+  <si>
+    <t>3.týden</t>
+  </si>
+  <si>
+    <t>4.týden</t>
+  </si>
+  <si>
+    <t>5.týden</t>
   </si>
 </sst>
 </file>
@@ -82,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -399,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB8EF1D-6300-444A-BE2C-2DB310F1D076}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -417,38 +427,79 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2.5</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
